--- a/Ar_Script/test_data.xlsx
+++ b/Ar_Script/test_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projecet\Ar_Script\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADA6FA-9DA6-43DA-B9DA-53585FF612E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="0" windowWidth="24270" windowHeight="12375" activeTab="5"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数值说明" sheetId="1" r:id="rId1"/>
@@ -17,15 +18,23 @@
     <sheet name="热启动_v10" sheetId="3" r:id="rId3"/>
     <sheet name="冷启动_v11_14" sheetId="4" r:id="rId4"/>
     <sheet name="热启动_v11_49" sheetId="5" r:id="rId5"/>
-    <sheet name="冷启动_v12_37" sheetId="8" r:id="rId6"/>
-    <sheet name="热启动_v12_60" sheetId="9" r:id="rId7"/>
+    <sheet name="冷启动_v12_37" sheetId="6" r:id="rId6"/>
+    <sheet name="热启动_v12_60" sheetId="7" r:id="rId7"/>
+    <sheet name="冷启动_v10_us" sheetId="8" r:id="rId8"/>
+    <sheet name="热启动_v10_us" sheetId="9" r:id="rId9"/>
+    <sheet name="冷启动_v10apk_45" sheetId="10" r:id="rId10"/>
+    <sheet name="热启动_v10apk_49" sheetId="11" r:id="rId11"/>
+    <sheet name="冷启动_v11_35" sheetId="12" r:id="rId12"/>
+    <sheet name="热启动_v11_51" sheetId="13" r:id="rId13"/>
+    <sheet name="冷启动_v12_24" sheetId="14" r:id="rId14"/>
+    <sheet name="热启动_v12_29" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="283">
   <si>
     <t>caltime:启动app后的计时器的值-启动app前启动计时器的值</t>
   </si>
@@ -490,13 +499,397 @@
   </si>
   <si>
     <t>2020-02-25 20:29:43</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:17</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:36</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:46</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:04:55</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:05</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:14</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:24</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:43</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:05:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:23</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:47</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:06:56</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:04</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:21</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:38</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:47</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:07:55</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:04</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:12</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:21</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:29</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:38</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:08:41</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:40:14</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:40:24</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:40:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:40:43</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:40:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:21</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:40</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:41:59</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:18</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:45</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:42:54</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:19</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:28</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:36</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:45</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:43:53</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:10</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:19</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:28</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:36</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:45</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:44:48</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:23</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:42</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:01</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:58</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:17</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:36</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:55</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:03</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:12</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:29</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:46</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:54</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:03</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:28</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:45</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:54</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:57</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:43</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:21</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:40</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:59</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:18</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:46</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:05</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:22</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:31</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:48</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:56</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:05</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:22</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:47</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:56</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:56:04</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:56:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +947,24 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -586,7 +997,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -606,10 +1017,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="content_style" xfId="2"/>
-    <cellStyle name="title_style" xfId="1"/>
+    <cellStyle name="content_style" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="title_style" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -655,7 +1075,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -743,7 +1162,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-774E-46E5-ADC8-DFF6E60064FB}"/>
+              <c16:uniqueId val="{00000000-CA86-4B13-A0A9-7264180707BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -795,7 +1214,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -810,7 +1228,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -840,7 +1258,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -854,7 +1271,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_37!$B$1</c:f>
+              <c:f>冷启动_v10apk_45!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,54 +1290,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_37!$B$2:$B$16</c:f>
+              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.5280118</c:v>
+                  <c:v>1.595527615000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4235450999999979</c:v>
+                  <c:v>1.405619346999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4327156000000021</c:v>
+                  <c:v>1.455411508000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3169992999999991</c:v>
+                  <c:v>1.456367309999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.480965099999999</c:v>
+                  <c:v>1.5594390270000029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5566238000000041</c:v>
+                  <c:v>1.5259609339999971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5455127999999969</c:v>
+                  <c:v>1.394874270000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.311197899999996</c:v>
+                  <c:v>1.5339312979999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5510960000000009</c:v>
+                  <c:v>1.490408301000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413676100000004</c:v>
+                  <c:v>1.534324523999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4680077000000009</c:v>
+                  <c:v>1.3824520489999941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.468691199999995</c:v>
+                  <c:v>1.448098658999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4560795000000011</c:v>
+                  <c:v>1.5101966129999771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4486539999999759</c:v>
+                  <c:v>1.549143306000019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4708001999999849</c:v>
+                  <c:v>1.4084177950000201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -928,7 +1345,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9590-4E29-A66E-1FB1F7BE9B59}"/>
+              <c16:uniqueId val="{00000000-93F4-4AA4-8620-17989C73D945}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -980,7 +1397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -995,17 +1411,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="39"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1025,7 +1441,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1039,7 +1454,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_60!$A$1</c:f>
+              <c:f>热启动_v10apk_49!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,54 +1473,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_60!$A$2:$A$16</c:f>
+              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>329</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>200</c:v>
-                </c:pt>
                 <c:pt idx="8">
-                  <c:v>203</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>223</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>223</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>296</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>189</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1113,7 +1528,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DA5D-4ABA-8AFA-4A7FD7FF81B1}"/>
+              <c16:uniqueId val="{00000000-8647-4CF8-AB83-4E8EDC71DEF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1165,7 +1580,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1180,17 +1594,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="39"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1210,7 +1624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1224,7 +1637,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_60!$B$1</c:f>
+              <c:f>热启动_v10apk_49!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1243,54 +1656,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_60!$B$2:$B$16</c:f>
+              <c:f>热启动_v10apk_49!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.49002089999999038</c:v>
+                  <c:v>0.46141221400000632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53756500000000074</c:v>
+                  <c:v>0.45435114500000401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51034149999998135</c:v>
+                  <c:v>0.38726185199999458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4291417000000024</c:v>
+                  <c:v>0.4979908910000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45434699999998429</c:v>
+                  <c:v>0.49615465999997349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55267549999999233</c:v>
+                  <c:v>0.55180928900000481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61481539999999768</c:v>
+                  <c:v>0.50694303700001342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46119469999999302</c:v>
+                  <c:v>0.50487074200000848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45373219999999043</c:v>
+                  <c:v>0.49207967099999911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51833609999999908</c:v>
+                  <c:v>0.53298704299999144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44518850000000038</c:v>
+                  <c:v>0.47666848400001532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57938240000001429</c:v>
+                  <c:v>0.60676246100001663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50471290000001545</c:v>
+                  <c:v>0.60425267800002302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44142049999999239</c:v>
+                  <c:v>0.4833433830000331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49536340000003071</c:v>
+                  <c:v>0.59738244900000836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,7 +1711,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A52F-4D1C-8766-53780F04DB72}"/>
+              <c16:uniqueId val="{00000000-3F9B-439E-ACB2-CD8B323C05FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1350,7 +1763,2934 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
       <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v11_35!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1284</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1354</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1189</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FBA-4FFD-ACAA-D9A5865B1105}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v11_35!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.499238886000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5486144070000021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.470317532000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.394931042000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5257357759999981</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5726117779999951</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.514043236000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.494204566999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5163570470000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4768695869999959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3813268969999939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.501141831000012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.520303097999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4876268520000051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.492927705999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E39-4D83-97EE-F7213553DD74}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v11_51!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3DA-49BE-A7A8-14760BA2AA44}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v11_51!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.65166271100000017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52707454000000098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53721534400000337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4366957470000159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43569985199999911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60974116300002379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54839405900000315</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50771024400000897</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49121143200000011</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4727246770000022</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.61724934299999745</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53452658899999506</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.56128071000000546</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.46013984199998959</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.51358361600000535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-57BF-4C67-A0A8-DDFF2E30FA9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v12_24!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1345</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1331</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1302</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1342</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1319</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4D7-47F3-9CAD-625DF17E48EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v12_24!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.517275000999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5344598759999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.532833729000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5322942459999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.416227468000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5860359859999991</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4170187309999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.50720668400001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4859628579999939</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5135358269999979</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.434616075999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.546846173000006</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.439564756999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4936907439999909</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.542972929999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F60B-40F4-B840-E4E20811D448}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="139"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="39"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v12_29!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-67B6-47CA-A7D2-87319D215C7C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v12_37!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v12_37!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.5280118</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4235450999999979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4327156000000021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3169992999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.480965099999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5566238000000041</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5455127999999969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.311197899999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5510960000000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.413676100000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4680077000000009</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.468691199999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4560795000000011</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4486539999999759</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4708001999999849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E12-4CB2-A450-1886540B453E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="139"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="39"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v12_29!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.97887260300001344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45954487200000932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59951055199999814</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55111392699998873</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50078645199999983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.51564532700001564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50013278599999467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56843479400001229</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4785444860000041</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43737667599998531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5086958750000008</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56337513599999056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.57902527400000281</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45733465900002562</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.54734748800001398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8ACE-4E9F-8D41-9DE69E35657A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v12_60!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v12_60!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-35E3-44A3-8E3F-B174B94C7926}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v12_60!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v12_60!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.49002089999999038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53756500000000074</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51034149999998135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4291417000000024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45434699999998429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55267549999999233</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.61481539999999768</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46119469999999302</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45373219999999043</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51833609999999908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.44518850000000038</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.57938240000001429</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.50471290000001545</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.44142049999999239</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.49536340000003071</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A8DA-4141-8C31-843069C9C04C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10_us!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3CA1-4587-9F69-849087D72EE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10_us!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4959295009999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.440738340999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5362675610000029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.466193469000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5629440630000031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3267765739999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6708823529999961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4909814620000079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.496999166000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.527710564999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.449428122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3877246779999981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.538900186000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.49564693100001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.423627879000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9B58-47DF-A586-1C6F2691B616}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10_us!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42F0-41E6-AD8B-283D0301981B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40131310499998563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42776861899997698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71328500900000336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48797293000001218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57768137799999408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45310539400000488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47424946999998951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48541471500001881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44428186499999361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47552953999999659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49032522900000691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42557604699999269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61192603699998926</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48210308599999507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46977997300001562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32DE-4B77-8C49-651E70AE8440}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EA9D-432B-91D7-9BF269CED409}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1377,7 +4717,13 @@
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1402,7 +4748,80 @@
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1432,7 +4851,13 @@
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1457,7 +4882,482 @@
     <xdr:ext cx="5400000" cy="2700000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1759,7 +5659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1798,8 +5698,1254 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1396</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.595527615000002</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.405619346999998</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.455411508000005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1264</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.456367309999997</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1362</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5594390270000029</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1338</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5259609339999971</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.394874270000003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1365</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.5339312979999991</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.490408301000002</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1356</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.534324523999999</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1195</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.3824520489999941</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1240</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.448098658999996</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1299</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.5101966129999771</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1321</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.549143306000019</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1216</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.4084177950000201</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1291.7333333333329</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.4833448370666671</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>258</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.46141221400000632</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>245</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.45435114500000401</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>257</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.38726185199999458</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>331</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4979908910000006</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>313</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.49615465999997349</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>390</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.55180928900000481</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>341</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.50694303700001342</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>329</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.50487074200000848</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>325</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.49207967099999911</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>305</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.53298704299999144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>307</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.47666848400001532</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>395</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.60676246100001663</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>391</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.60425267800002302</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.4833433830000331</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>360</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.59738244900000836</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.51028466660000615</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1297</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.499238886000001</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1305</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.5486144070000021</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1284</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.470317532000003</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1186</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.394931042000003</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1338</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5257357759999981</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1354</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5726117779999951</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1312</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.514043236000006</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1279</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.494204566999997</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1321</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.5163570470000001</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1267</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.4768695869999959</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.3813268969999939</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1332</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.501141831000012</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1335</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.520303097999999</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1279</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4876268520000051</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1301</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.492927705999989</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1291.9333333333329</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.4930833494666671</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>459</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.65166271100000017</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>349</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.52707454000000098</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>315</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.53721534400000337</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>284</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4366957470000159</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>282</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.43569985199999911</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>414</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.60974116300002379</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>378</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.54839405900000315</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>326</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.50771024400000897</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>356</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.49121143200000011</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>299</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.4727246770000022</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>435</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.61724934299999745</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>392</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.53452658899999506</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>343</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.56128071000000546</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>282</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.46013984199998959</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>326</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.51358361600000535</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>349.33333333333331</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.52699399126667001</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.517275000999998</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1339</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.5344598759999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.532833729000004</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1345</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.5322942459999991</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.416227468000002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1385</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5860359859999991</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.4170187309999991</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1331</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.50720668400001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.4859628579999939</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.5135358269999979</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1274</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.434616075999998</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1342</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.546846173000006</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.439564756999999</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1319</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4936907439999909</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1325</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.542972929999991</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1303.0666666666671</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.500036072399999</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>775</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.97887260300001344</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>284</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.45954487200000932</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>364</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.59951055199999814</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>347</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.55111392699998873</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>352</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.50078645199999983</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>358</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.51564532700001564</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>350</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.50013278599999467</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>371</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.56843479400001229</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>341</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4785444860000041</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>286</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.43737667599998531</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>346</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5086958750000008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>361</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.56337513599999056</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>355</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.57902527400000281</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>315</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.45733465900002562</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>381</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.54734748800001398</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>372.4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.54971606046667032</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2005,12 +7151,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2213,7 +7357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2419,7 +7563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2625,216 +7769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1273</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.5280118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1125</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.4235450999999979</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1137</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.4327156000000021</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1113</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.3169992999999991</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1184</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.480965099999999</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1211</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.5566238000000041</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1239</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.5455127999999969</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1098</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.311197899999996</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1250</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.5510960000000009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1116</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.413676100000004</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1203</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.4680077000000009</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1203</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.468691199999995</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1146</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.4560795000000011</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1205</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.4486539999999759</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1187</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.4708001999999849</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1179.333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.4581717399999969</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2846,7 +7781,214 @@
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1273</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.5280118</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4235450999999979</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1137</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.4327156000000021</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.3169992999999991</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1184</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.480965099999999</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5566238000000041</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1239</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.5455127999999969</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1098</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.311197899999996</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1250</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.5510960000000009</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.413676100000004</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.4680077000000009</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1203</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.468691199999995</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1146</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.4560795000000011</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4486539999999759</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1187</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.4708001999999849</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1179.333333333333</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.4581717399999969</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -3031,6 +8173,422 @@
       </c>
       <c r="C17" s="3" t="s">
         <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1296</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.4959295009999991</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1242</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.440738340999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1330</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.5362675610000029</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1288</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.466193469000004</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1384</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5629440630000031</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1156</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.3267765739999999</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1426</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.6708823529999961</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1323</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.4909814620000079</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1290</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.496999166000009</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1362</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.527710564999992</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1276</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.449428122</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1188</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.3877246779999981</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1360</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.538900186000006</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1311</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.49564693100001</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1243</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.423627879000009</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1298.333333333333</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.4873833900666691</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.40131310499998563</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.42776861899997698</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>574</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.71328500900000336</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>322</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48797293000001218</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>368</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.57768137799999408</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>288</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45310539400000488</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.47424946999998951</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.48541471500001881</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>278</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.44428186499999361</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>287</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.47552953999999659</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>316</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49032522900000691</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>251</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.42557604699999269</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>393</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.61192603699998926</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.48210308599999507</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>303</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.46977997300001562</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>321.8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.49468749313333171</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Ar_Script/test_data.xlsx
+++ b/Ar_Script/test_data.xlsx
@@ -8,33 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ADA6FA-9DA6-43DA-B9DA-53585FF612E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E75C0B-A51A-4B5C-AFB1-BCA4C1E2C8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数值说明" sheetId="1" r:id="rId1"/>
-    <sheet name="冷启动_v10" sheetId="2" r:id="rId2"/>
-    <sheet name="热启动_v10" sheetId="3" r:id="rId3"/>
-    <sheet name="冷启动_v11_14" sheetId="4" r:id="rId4"/>
-    <sheet name="热启动_v11_49" sheetId="5" r:id="rId5"/>
-    <sheet name="冷启动_v12_37" sheetId="6" r:id="rId6"/>
-    <sheet name="热启动_v12_60" sheetId="7" r:id="rId7"/>
-    <sheet name="冷启动_v10_us" sheetId="8" r:id="rId8"/>
-    <sheet name="热启动_v10_us" sheetId="9" r:id="rId9"/>
-    <sheet name="冷启动_v10apk_45" sheetId="10" r:id="rId10"/>
-    <sheet name="热启动_v10apk_49" sheetId="11" r:id="rId11"/>
-    <sheet name="冷启动_v11_35" sheetId="12" r:id="rId12"/>
-    <sheet name="热启动_v11_51" sheetId="13" r:id="rId13"/>
-    <sheet name="冷启动_v12_24" sheetId="14" r:id="rId14"/>
-    <sheet name="热启动_v12_29" sheetId="15" r:id="rId15"/>
+    <sheet name="冷启动_v12_24" sheetId="14" r:id="rId2"/>
+    <sheet name="热启动_v12_29" sheetId="15" r:id="rId3"/>
+    <sheet name="冷启动_v11_35" sheetId="12" r:id="rId4"/>
+    <sheet name="热启动_v11_51" sheetId="13" r:id="rId5"/>
+    <sheet name="冷启动_v10_us" sheetId="8" r:id="rId6"/>
+    <sheet name="热启动_v10_us" sheetId="9" r:id="rId7"/>
+    <sheet name="冷启动_v10apk_45" sheetId="10" r:id="rId8"/>
+    <sheet name="热启动_v10apk_49" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
   <si>
     <t>caltime:启动app后的计时器的值-启动app前启动计时器的值</t>
   </si>
@@ -55,450 +49,6 @@
   </si>
   <si>
     <t>currentTime</t>
-  </si>
-  <si>
-    <t>429</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:09:34</t>
-  </si>
-  <si>
-    <t>403</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:09:44</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:09:53</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:03</t>
-  </si>
-  <si>
-    <t>426</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:13</t>
-  </si>
-  <si>
-    <t>408</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:23</t>
-  </si>
-  <si>
-    <t>411</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:33</t>
-  </si>
-  <si>
-    <t>409</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:43</t>
-  </si>
-  <si>
-    <t>416</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:10:53</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:02</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:12</t>
-  </si>
-  <si>
-    <t>401</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:22</t>
-  </si>
-  <si>
-    <t>418</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:32</t>
-  </si>
-  <si>
-    <t>515</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:42</t>
-  </si>
-  <si>
-    <t>427</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:52</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:11:55</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:10</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:19</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:27</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:36</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:44</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:12:53</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:02</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:10</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:19</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:27</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:36</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:44</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:13:53</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:14:01</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:14:10</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:14:13</t>
-  </si>
-  <si>
-    <t>1255</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:17:38</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:17:48</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:17:57</t>
-  </si>
-  <si>
-    <t>1236</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:07</t>
-  </si>
-  <si>
-    <t>1209</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:16</t>
-  </si>
-  <si>
-    <t>1305</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:26</t>
-  </si>
-  <si>
-    <t>1090</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:35</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:45</t>
-  </si>
-  <si>
-    <t>1205</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:18:55</t>
-  </si>
-  <si>
-    <t>1241</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:04</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:14</t>
-  </si>
-  <si>
-    <t>1224</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:24</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:33</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:43</t>
-  </si>
-  <si>
-    <t>1141</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:52</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:19:55</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:11</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:19</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:28</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:36</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:45</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:20:53</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:02</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:10</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:19</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:27</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:36</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:45</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:21:53</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:22:02</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:22:10</t>
-  </si>
-  <si>
-    <t>2020-02-25 11:22:13</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:09</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:18</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:28</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:37</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:47</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:25:56</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:06</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:15</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:25</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:35</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:44</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:26:54</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:03</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:13</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:22</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:25</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:41</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:49</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:27:58</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:06</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:15</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:23</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:32</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:41</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:49</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:28:58</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:06</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:15</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:23</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:32</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:40</t>
-  </si>
-  <si>
-    <t>2020-02-25 20:29:43</t>
   </si>
   <si>
     <t>2020-02-26 15:04:08</t>
@@ -889,7 +439,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,25 +476,6 @@
       <sz val="11.3"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -997,7 +528,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,15 +546,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1088,7 +610,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_37!$A$1</c:f>
+              <c:f>冷启动_v12_24!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1107,54 +629,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_37!$A$2:$A$16</c:f>
+              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1273</c:v>
+                  <c:v>1306</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1125</c:v>
+                  <c:v>1339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1137</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1113</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1184</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1211</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>1239</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1098</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1250</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1116</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1203</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1203</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1146</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1205</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1187</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1162,7 +684,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CA86-4B13-A0A9-7264180707BD}"/>
+              <c16:uniqueId val="{00000000-C4D7-47F3-9CAD-625DF17E48EE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1271,7 +793,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$B$1</c:f>
+              <c:f>冷启动_v10_us!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1290,54 +812,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
+              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.595527615000002</c:v>
+                  <c:v>1.4959295009999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.405619346999998</c:v>
+                  <c:v>1.440738340999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.455411508000005</c:v>
+                  <c:v>1.5362675610000029</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.456367309999997</c:v>
+                  <c:v>1.466193469000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5594390270000029</c:v>
+                  <c:v>1.5629440630000031</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5259609339999971</c:v>
+                  <c:v>1.3267765739999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.394874270000003</c:v>
+                  <c:v>1.6708823529999961</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5339312979999991</c:v>
+                  <c:v>1.4909814620000079</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.490408301000002</c:v>
+                  <c:v>1.496999166000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.534324523999999</c:v>
+                  <c:v>1.527710564999992</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3824520489999941</c:v>
+                  <c:v>1.449428122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.448098658999996</c:v>
+                  <c:v>1.3877246779999981</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5101966129999771</c:v>
+                  <c:v>1.538900186000006</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.549143306000019</c:v>
+                  <c:v>1.49564693100001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4084177950000201</c:v>
+                  <c:v>1.423627879000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1345,7 +867,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93F4-4AA4-8620-17989C73D945}"/>
+              <c16:uniqueId val="{00000000-9B58-47DF-A586-1C6F2691B616}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1454,7 +976,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10apk_49!$A$1</c:f>
+              <c:f>热启动_v10_us!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1473,54 +995,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
+              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>258</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>329</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325</c:v>
+                  <c:v>278</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>305</c:v>
+                  <c:v>287</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>395</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>391</c:v>
+                  <c:v>393</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>360</c:v>
+                  <c:v>303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1528,7 +1050,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8647-4CF8-AB83-4E8EDC71DEF3}"/>
+              <c16:uniqueId val="{00000000-42F0-41E6-AD8B-283D0301981B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1637,7 +1159,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10apk_49!$B$1</c:f>
+              <c:f>热启动_v10_us!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1656,54 +1178,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10apk_49!$B$2:$B$16</c:f>
+              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.46141221400000632</c:v>
+                  <c:v>0.40131310499998563</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45435114500000401</c:v>
+                  <c:v>0.42776861899997698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38726185199999458</c:v>
+                  <c:v>0.71328500900000336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4979908910000006</c:v>
+                  <c:v>0.48797293000001218</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49615465999997349</c:v>
+                  <c:v>0.57768137799999408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55180928900000481</c:v>
+                  <c:v>0.45310539400000488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50694303700001342</c:v>
+                  <c:v>0.47424946999998951</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50487074200000848</c:v>
+                  <c:v>0.48541471500001881</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49207967099999911</c:v>
+                  <c:v>0.44428186499999361</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53298704299999144</c:v>
+                  <c:v>0.47552953999999659</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47666848400001532</c:v>
+                  <c:v>0.49032522900000691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60676246100001663</c:v>
+                  <c:v>0.42557604699999269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60425267800002302</c:v>
+                  <c:v>0.61192603699998926</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4833433830000331</c:v>
+                  <c:v>0.48210308599999507</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59738244900000836</c:v>
+                  <c:v>0.46977997300001562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1711,7 +1233,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F9B-439E-ACB2-CD8B323C05FC}"/>
+              <c16:uniqueId val="{00000000-32DE-4B77-8C49-651E70AE8440}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1820,7 +1342,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$A$1</c:f>
+              <c:f>冷启动_v10apk_45!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1839,54 +1361,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
+              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1297</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1305</c:v>
+                  <c:v>1205</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284</c:v>
+                  <c:v>1304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1186</c:v>
+                  <c:v>1264</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1338</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1354</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>1312</c:v>
+                  <c:v>1212</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1279</c:v>
+                  <c:v>1365</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>1321</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1267</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1189</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1332</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1335</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1279</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>1301</c:v>
+                  <c:v>1216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1894,7 +1416,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FBA-4FFD-ACAA-D9A5865B1105}"/>
+              <c16:uniqueId val="{00000000-EA9D-432B-91D7-9BF269CED409}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2003,7 +1525,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$B$1</c:f>
+              <c:f>冷启动_v10apk_45!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2022,54 +1544,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
+              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.499238886000001</c:v>
+                  <c:v>1.595527615000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5486144070000021</c:v>
+                  <c:v>1.405619346999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.470317532000003</c:v>
+                  <c:v>1.455411508000005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.394931042000003</c:v>
+                  <c:v>1.456367309999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5257357759999981</c:v>
+                  <c:v>1.5594390270000029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5726117779999951</c:v>
+                  <c:v>1.5259609339999971</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.514043236000006</c:v>
+                  <c:v>1.394874270000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.494204566999997</c:v>
+                  <c:v>1.5339312979999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5163570470000001</c:v>
+                  <c:v>1.490408301000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4768695869999959</c:v>
+                  <c:v>1.534324523999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3813268969999939</c:v>
+                  <c:v>1.3824520489999941</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.501141831000012</c:v>
+                  <c:v>1.448098658999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.520303097999999</c:v>
+                  <c:v>1.5101966129999771</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4876268520000051</c:v>
+                  <c:v>1.549143306000019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.492927705999989</c:v>
+                  <c:v>1.4084177950000201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2077,7 +1599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E39-4D83-97EE-F7213553DD74}"/>
+              <c16:uniqueId val="{00000000-93F4-4AA4-8620-17989C73D945}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2186,7 +1708,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$A$1</c:f>
+              <c:f>热启动_v10apk_49!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2205,54 +1727,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
+              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>459</c:v>
+                  <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349</c:v>
+                  <c:v>245</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284</c:v>
+                  <c:v>331</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>282</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>414</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>326</c:v>
+                  <c:v>329</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>356</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>299</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>435</c:v>
+                  <c:v>307</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>392</c:v>
+                  <c:v>395</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>343</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282</c:v>
+                  <c:v>292</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>326</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,7 +1782,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3DA-49BE-A7A8-14760BA2AA44}"/>
+              <c16:uniqueId val="{00000000-8647-4CF8-AB83-4E8EDC71DEF3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2369,7 +1891,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$B$1</c:f>
+              <c:f>热启动_v10apk_49!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2388,54 +1910,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
+              <c:f>热启动_v10apk_49!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.65166271100000017</c:v>
+                  <c:v>0.46141221400000632</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52707454000000098</c:v>
+                  <c:v>0.45435114500000401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53721534400000337</c:v>
+                  <c:v>0.38726185199999458</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4366957470000159</c:v>
+                  <c:v>0.4979908910000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43569985199999911</c:v>
+                  <c:v>0.49615465999997349</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60974116300002379</c:v>
+                  <c:v>0.55180928900000481</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54839405900000315</c:v>
+                  <c:v>0.50694303700001342</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50771024400000897</c:v>
+                  <c:v>0.50487074200000848</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49121143200000011</c:v>
+                  <c:v>0.49207967099999911</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4727246770000022</c:v>
+                  <c:v>0.53298704299999144</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61724934299999745</c:v>
+                  <c:v>0.47666848400001532</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53452658899999506</c:v>
+                  <c:v>0.60676246100001663</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56128071000000546</c:v>
+                  <c:v>0.60425267800002302</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46013984199998959</c:v>
+                  <c:v>0.4833433830000331</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51358361600000535</c:v>
+                  <c:v>0.59738244900000836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2443,556 +1965,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57BF-4C67-A0A8-DDFF2E30FA9D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Runtime Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>冷启动_v12_24!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>runTime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1339</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1296</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1345</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1211</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1385</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1211</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1331</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1302</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1274</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1342</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1260</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1319</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1325</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4D7-47F3-9CAD-625DF17E48EE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Caltime Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>冷启动_v12_24!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>calTime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.517275000999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5344598759999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.532833729000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.5322942459999991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.416227468000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5860359859999991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4170187309999991</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.50720668400001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.4859628579999939</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5135358269999979</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.434616075999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.546846173000006</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.439564756999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4936907439999909</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.542972929999991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F60B-40F4-B840-E4E20811D448}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="39"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Runtime Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>热启动_v12_29!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>runTime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>775</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>381</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67B6-47CA-A7D2-87319D215C7C}"/>
+              <c16:uniqueId val="{00000000-3F9B-439E-ACB2-CD8B323C05FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3101,7 +2074,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_37!$B$1</c:f>
+              <c:f>冷启动_v12_24!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3120,54 +2093,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_37!$B$2:$B$16</c:f>
+              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.5280118</c:v>
+                  <c:v>1.517275000999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4235450999999979</c:v>
+                  <c:v>1.5344598759999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4327156000000021</c:v>
+                  <c:v>1.532833729000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3169992999999991</c:v>
+                  <c:v>1.5322942459999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.480965099999999</c:v>
+                  <c:v>1.416227468000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5566238000000041</c:v>
+                  <c:v>1.5860359859999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5455127999999969</c:v>
+                  <c:v>1.4170187309999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.311197899999996</c:v>
+                  <c:v>1.50720668400001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5510960000000009</c:v>
+                  <c:v>1.4859628579999939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.413676100000004</c:v>
+                  <c:v>1.5135358269999979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.4680077000000009</c:v>
+                  <c:v>1.434616075999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.468691199999995</c:v>
+                  <c:v>1.546846173000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4560795000000011</c:v>
+                  <c:v>1.439564756999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4486539999999759</c:v>
+                  <c:v>1.4936907439999909</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4708001999999849</c:v>
+                  <c:v>1.542972929999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3175,190 +2148,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E12-4CB2-A450-1886540B453E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="10"/>
-        <c:axId val="100"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="10"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="39"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Caltime Data</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>热启动_v12_29!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>calTime</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.97887260300001344</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45954487200000932</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59951055199999814</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55111392699998873</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.50078645199999983</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.51564532700001564</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.50013278599999467</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.56843479400001229</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.4785444860000041</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43737667599998531</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.5086958750000008</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56337513599999056</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.57902527400000281</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.45733465900002562</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.54734748800001398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8ACE-4E9F-8D41-9DE69E35657A}"/>
+              <c16:uniqueId val="{00000000-F60B-40F4-B840-E4E20811D448}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3431,10 +2221,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3467,7 +2257,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_60!$A$1</c:f>
+              <c:f>热启动_v12_29!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3486,54 +2276,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_60!$A$2:$A$16</c:f>
+              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>232</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>209</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>212</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>190</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>329</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>275</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>200</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>203</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>223</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>223</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>296</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>206</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>189</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>208</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3541,7 +2331,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-35E3-44A3-8E3F-B174B94C7926}"/>
+              <c16:uniqueId val="{00000000-67B6-47CA-A7D2-87319D215C7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3614,10 +2404,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3650,7 +2440,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_60!$B$1</c:f>
+              <c:f>热启动_v12_29!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3669,54 +2459,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_60!$B$2:$B$16</c:f>
+              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.49002089999999038</c:v>
+                  <c:v>0.97887260300001344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53756500000000074</c:v>
+                  <c:v>0.45954487200000932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.51034149999998135</c:v>
+                  <c:v>0.59951055199999814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4291417000000024</c:v>
+                  <c:v>0.55111392699998873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.45434699999998429</c:v>
+                  <c:v>0.50078645199999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55267549999999233</c:v>
+                  <c:v>0.51564532700001564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.61481539999999768</c:v>
+                  <c:v>0.50013278599999467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46119469999999302</c:v>
+                  <c:v>0.56843479400001229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.45373219999999043</c:v>
+                  <c:v>0.4785444860000041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.51833609999999908</c:v>
+                  <c:v>0.43737667599998531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.44518850000000038</c:v>
+                  <c:v>0.5086958750000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.57938240000001429</c:v>
+                  <c:v>0.56337513599999056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.50471290000001545</c:v>
+                  <c:v>0.57902527400000281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.44142049999999239</c:v>
+                  <c:v>0.45733465900002562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.49536340000003071</c:v>
+                  <c:v>0.54734748800001398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +2514,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8DA-4141-8C31-843069C9C04C}"/>
+              <c16:uniqueId val="{00000000-8ACE-4E9F-8D41-9DE69E35657A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3833,7 +2623,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$A$1</c:f>
+              <c:f>冷启动_v11_35!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3852,54 +2642,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1296</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1242</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1330</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1288</c:v>
+                  <c:v>1186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1384</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1156</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1426</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1323</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1362</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1276</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1188</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1360</c:v>
+                  <c:v>1335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1311</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1243</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3907,7 +2697,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CA1-4587-9F69-849087D72EE4}"/>
+              <c16:uniqueId val="{00000000-7FBA-4FFD-ACAA-D9A5865B1105}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4016,7 +2806,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$B$1</c:f>
+              <c:f>冷启动_v11_35!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4035,54 +2825,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.4959295009999991</c:v>
+                  <c:v>1.499238886000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.440738340999999</c:v>
+                  <c:v>1.5486144070000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5362675610000029</c:v>
+                  <c:v>1.470317532000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.466193469000004</c:v>
+                  <c:v>1.394931042000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5629440630000031</c:v>
+                  <c:v>1.5257357759999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3267765739999999</c:v>
+                  <c:v>1.5726117779999951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6708823529999961</c:v>
+                  <c:v>1.514043236000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4909814620000079</c:v>
+                  <c:v>1.494204566999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.496999166000009</c:v>
+                  <c:v>1.5163570470000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.527710564999992</c:v>
+                  <c:v>1.4768695869999959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.449428122</c:v>
+                  <c:v>1.3813268969999939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3877246779999981</c:v>
+                  <c:v>1.501141831000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.538900186000006</c:v>
+                  <c:v>1.520303097999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.49564693100001</c:v>
+                  <c:v>1.4876268520000051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.423627879000009</c:v>
+                  <c:v>1.492927705999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4090,7 +2880,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B58-47DF-A586-1C6F2691B616}"/>
+              <c16:uniqueId val="{00000000-7E39-4D83-97EE-F7213553DD74}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4199,7 +2989,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$A$1</c:f>
+              <c:f>热启动_v11_51!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4218,54 +3008,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>247</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>278</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>287</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>393</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>303</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +3063,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42F0-41E6-AD8B-283D0301981B}"/>
+              <c16:uniqueId val="{00000000-D3DA-49BE-A7A8-14760BA2AA44}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4382,7 +3172,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:f>热启动_v11_51!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4401,54 +3191,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.40131310499998563</c:v>
+                  <c:v>0.65166271100000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42776861899997698</c:v>
+                  <c:v>0.52707454000000098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71328500900000336</c:v>
+                  <c:v>0.53721534400000337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48797293000001218</c:v>
+                  <c:v>0.4366957470000159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57768137799999408</c:v>
+                  <c:v>0.43569985199999911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45310539400000488</c:v>
+                  <c:v>0.60974116300002379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47424946999998951</c:v>
+                  <c:v>0.54839405900000315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48541471500001881</c:v>
+                  <c:v>0.50771024400000897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44428186499999361</c:v>
+                  <c:v>0.49121143200000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47552953999999659</c:v>
+                  <c:v>0.4727246770000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49032522900000691</c:v>
+                  <c:v>0.61724934299999745</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42557604699999269</c:v>
+                  <c:v>0.53452658899999506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61192603699998926</c:v>
+                  <c:v>0.56128071000000546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48210308599999507</c:v>
+                  <c:v>0.46013984199998959</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46977997300001562</c:v>
+                  <c:v>0.51358361600000535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4456,7 +3246,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32DE-4B77-8C49-651E70AE8440}"/>
+              <c16:uniqueId val="{00000000-57BF-4C67-A0A8-DDFF2E30FA9D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4565,7 +3355,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:f>冷启动_v10_us!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4584,54 +3374,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1396</c:v>
+                  <c:v>1296</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1205</c:v>
+                  <c:v>1242</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1304</c:v>
+                  <c:v>1330</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1264</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1362</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>1338</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1212</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1303</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1356</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>1195</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1240</c:v>
+                  <c:v>1188</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1299</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1321</c:v>
+                  <c:v>1311</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1216</c:v>
+                  <c:v>1243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4639,7 +3429,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA9D-432B-91D7-9BF269CED409}"/>
+              <c16:uniqueId val="{00000000-3CA1-4587-9F69-849087D72EE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4720,7 +3510,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4751,7 +3541,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4772,7 +3562,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4839,7 +3629,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4854,7 +3644,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4885,7 +3675,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4906,7 +3696,74 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -4973,7 +3830,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5040,7 +3897,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5107,7 +3964,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -5154,207 +4011,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5698,8 +4354,215 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.517275000999998</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1339</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.5344598759999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.532833729000004</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1345</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.5322942459999991</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.416227468000002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1385</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5860359859999991</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.4170187309999991</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1331</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.50720668400001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.4859628579999939</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.5135358269999979</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1274</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.434616075999998</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1342</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.546846173000006</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.439564756999999</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1319</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4936907439999909</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1325</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.542972929999991</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1303.0666666666671</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.500036072399999</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5711,191 +4574,191 @@
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1396</v>
+        <v>775</v>
       </c>
       <c r="B2" s="3">
-        <v>1.595527615000002</v>
+        <v>0.97887260300001344</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1205</v>
+        <v>284</v>
       </c>
       <c r="B3" s="3">
-        <v>1.405619346999998</v>
+        <v>0.45954487200000932</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1304</v>
+        <v>364</v>
       </c>
       <c r="B4" s="3">
-        <v>1.455411508000005</v>
+        <v>0.59951055199999814</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1264</v>
+        <v>347</v>
       </c>
       <c r="B5" s="3">
-        <v>1.456367309999997</v>
+        <v>0.55111392699998873</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1362</v>
+        <v>352</v>
       </c>
       <c r="B6" s="3">
-        <v>1.5594390270000029</v>
+        <v>0.50078645199999983</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1338</v>
+        <v>358</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5259609339999971</v>
+        <v>0.51564532700001564</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>192</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1212</v>
+        <v>350</v>
       </c>
       <c r="B8" s="3">
-        <v>1.394874270000003</v>
+        <v>0.50013278599999467</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1365</v>
+        <v>371</v>
       </c>
       <c r="B9" s="3">
-        <v>1.5339312979999991</v>
+        <v>0.56843479400001229</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>194</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1303</v>
+        <v>341</v>
       </c>
       <c r="B10" s="3">
-        <v>1.490408301000002</v>
+        <v>0.4785444860000041</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1356</v>
+        <v>286</v>
       </c>
       <c r="B11" s="3">
-        <v>1.534324523999999</v>
+        <v>0.43737667599998531</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>1195</v>
+        <v>346</v>
       </c>
       <c r="B12" s="3">
-        <v>1.3824520489999941</v>
+        <v>0.5086958750000008</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>1240</v>
+        <v>361</v>
       </c>
       <c r="B13" s="3">
-        <v>1.448098658999996</v>
+        <v>0.56337513599999056</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>198</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>1299</v>
+        <v>355</v>
       </c>
       <c r="B14" s="3">
-        <v>1.5101966129999771</v>
+        <v>0.57902527400000281</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>199</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>1321</v>
+        <v>315</v>
       </c>
       <c r="B15" s="3">
-        <v>1.549143306000019</v>
+        <v>0.45733465900002562</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>1216</v>
+        <v>381</v>
       </c>
       <c r="B16" s="3">
-        <v>1.4084177950000201</v>
+        <v>0.54734748800001398</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>201</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>1291.7333333333329</v>
+        <v>372.4</v>
       </c>
       <c r="B17" s="3">
-        <v>1.4833448370666671</v>
+        <v>0.54971606046667032</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>202</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5905,219 +4768,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>258</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.46141221400000632</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>245</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.45435114500000401</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>257</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.38726185199999458</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>331</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.4979908910000006</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>313</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.49615465999997349</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>390</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.55180928900000481</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>341</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.50694303700001342</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>329</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.50487074200000848</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>325</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.49207967099999911</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>305</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.53298704299999144</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>307</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.47666848400001532</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>395</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.60676246100001663</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>391</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.60425267800002302</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>292</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.4833433830000331</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>360</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.59738244900000836</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>322.60000000000002</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.51028466660000615</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6128,13 +4784,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6146,7 +4802,7 @@
         <v>1.499238886000001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>219</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6157,7 +4813,7 @@
         <v>1.5486144070000021</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>220</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6168,7 +4824,7 @@
         <v>1.470317532000003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6179,7 +4835,7 @@
         <v>1.394931042000003</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>222</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6190,7 +4846,7 @@
         <v>1.5257357759999981</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>223</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6201,7 +4857,7 @@
         <v>1.5726117779999951</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>224</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6212,7 +4868,7 @@
         <v>1.514043236000006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>225</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6223,7 +4879,7 @@
         <v>1.494204566999997</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>226</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6234,7 +4890,7 @@
         <v>1.5163570470000001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>227</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6245,7 +4901,7 @@
         <v>1.4768695869999959</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>228</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6256,7 +4912,7 @@
         <v>1.3813268969999939</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>229</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6267,7 +4923,7 @@
         <v>1.501141831000012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>230</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6278,7 +4934,7 @@
         <v>1.520303097999999</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>231</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6289,7 +4945,7 @@
         <v>1.4876268520000051</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6300,7 +4956,7 @@
         <v>1.492927705999989</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6311,7 +4967,7 @@
         <v>1.4930833494666671</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>234</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +4977,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -6337,13 +4993,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6355,7 +5011,7 @@
         <v>0.65166271100000017</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>235</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -6366,7 +5022,7 @@
         <v>0.52707454000000098</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>236</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -6377,7 +5033,7 @@
         <v>0.53721534400000337</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>237</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -6388,7 +5044,7 @@
         <v>0.4366957470000159</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>238</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -6399,7 +5055,7 @@
         <v>0.43569985199999911</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>239</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -6410,7 +5066,7 @@
         <v>0.60974116300002379</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -6421,7 +5077,7 @@
         <v>0.54839405900000315</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>241</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -6432,7 +5088,7 @@
         <v>0.50771024400000897</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>242</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -6443,7 +5099,7 @@
         <v>0.49121143200000011</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -6454,7 +5110,7 @@
         <v>0.4727246770000022</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>244</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -6465,7 +5121,7 @@
         <v>0.61724934299999745</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -6476,7 +5132,7 @@
         <v>0.53452658899999506</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>246</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -6487,7 +5143,7 @@
         <v>0.56128071000000546</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -6498,7 +5154,7 @@
         <v>0.46013984199998959</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>248</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -6509,7 +5165,7 @@
         <v>0.51358361600000535</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -6520,7 +5176,7 @@
         <v>0.52699399126667001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>250</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -6530,422 +5186,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1306</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.517275000999998</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1339</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.5344598759999999</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1296</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.532833729000004</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1345</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.5322942459999991</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1211</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.416227468000002</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1385</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.5860359859999991</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1211</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.4170187309999991</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1331</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.50720668400001</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1300</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.4859628579999939</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1302</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.5135358269999979</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1274</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.434616075999998</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1342</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.546846173000006</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1260</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.439564756999999</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1319</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.4936907439999909</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1325</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.542972929999991</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1303.0666666666671</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.500036072399999</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>775</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.97887260300001344</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>284</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.45954487200000932</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>364</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.59951055199999814</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>347</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.55111392699998873</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>352</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.50078645199999983</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>358</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.51564532700001564</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>350</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.50013278599999467</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>371</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.56843479400001229</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>341</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.4785444860000041</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>286</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.43737667599998531</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>346</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.5086958750000008</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>361</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.56337513599999056</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>355</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.57902527400000281</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>315</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.45733465900002562</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>381</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.54734748800001398</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>372.4</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.54971606046667032</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6969,192 +5211,195 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1296</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.4959295009999991</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3">
-        <v>1.825394999999999</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1242</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.440738340999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1330</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.5362675610000029</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>1.754429000000002</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1288</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.466193469000004</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1384</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5629440630000031</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3">
-        <v>1.8141865999999991</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1156</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.3267765739999999</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1426</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.6708823529999961</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.7437061999999981</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1323</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.4909814620000079</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1290</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.496999166000009</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
-        <v>1.790903700000001</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1362</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.527710564999992</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1276</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.449428122</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3">
-        <v>1.7410751000000031</v>
-      </c>
-      <c r="C7" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1188</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.3877246779999981</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1360</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.538900186000006</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="3">
-        <v>1.79491800000001</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1311</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.49564693100001</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1243</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.423627879000009</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.693838</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.862542500000004</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.6967246999999901</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.7438493000000079</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.854617200000007</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.8222359000000099</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.962845199999975</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.821668399999993</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>421.86666666666667</v>
+        <v>1298.333333333333</v>
       </c>
       <c r="B17" s="3">
-        <v>1.79486232</v>
+        <v>1.4873833900666691</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7175,192 +5420,193 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.40131310499998563</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.42776861899997698</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>574</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.71328500900000336</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>322</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48797293000001218</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>368</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.57768137799999408</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>288</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45310539400000488</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.47424946999998951</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.48541471500001881</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>278</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.44428186499999361</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>287</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.47552953999999659</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>316</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49032522900000691</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>251</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.42557604699999269</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>393</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.61192603699998926</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.48210308599999507</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.44675550000002318</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>303</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.46977997300001562</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.3961574000000212</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.37843759999998378</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.54984310000000391</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.47856100000001328</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.49361640000000762</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.47188929999998658</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.48274419999998491</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.46744979999999708</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.5130286000000126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.54704179999998814</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.48786929999999978</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.5017720999999824</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.47835240000000567</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.42907139999999799</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>228.6</v>
+        <v>321.8</v>
       </c>
       <c r="B17" s="3">
-        <v>0.47483932666666723</v>
+        <v>0.49468749313333171</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7381,192 +5627,195 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
+      <c r="A2" s="3">
+        <v>1396</v>
       </c>
       <c r="B2" s="3">
-        <v>1.469405399999999</v>
+        <v>1.595527615000002</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>68</v>
+      <c r="A3" s="3">
+        <v>1205</v>
       </c>
       <c r="B3" s="3">
-        <v>1.4533443999999991</v>
+        <v>1.405619346999998</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>68</v>
+      <c r="A4" s="3">
+        <v>1304</v>
       </c>
       <c r="B4" s="3">
-        <v>1.493779600000003</v>
+        <v>1.455411508000005</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>71</v>
+      <c r="A5" s="3">
+        <v>1264</v>
       </c>
       <c r="B5" s="3">
-        <v>1.550908499999998</v>
+        <v>1.456367309999997</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>73</v>
+      <c r="A6" s="3">
+        <v>1362</v>
       </c>
       <c r="B6" s="3">
-        <v>1.5093743000000051</v>
+        <v>1.5594390270000029</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>75</v>
+      <c r="A7" s="3">
+        <v>1338</v>
       </c>
       <c r="B7" s="3">
-        <v>1.597081299999999</v>
+        <v>1.5259609339999971</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>77</v>
+      <c r="A8" s="3">
+        <v>1212</v>
       </c>
       <c r="B8" s="3">
-        <v>1.3028829</v>
+        <v>1.394874270000003</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>79</v>
+      <c r="A9" s="3">
+        <v>1365</v>
       </c>
       <c r="B9" s="3">
-        <v>1.5359929999999911</v>
+        <v>1.5339312979999991</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>81</v>
+      <c r="A10" s="3">
+        <v>1303</v>
       </c>
       <c r="B10" s="3">
-        <v>1.52997950000001</v>
+        <v>1.490408301000002</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>83</v>
+      <c r="A11" s="3">
+        <v>1356</v>
       </c>
       <c r="B11" s="3">
-        <v>1.5309228999999931</v>
+        <v>1.534324523999999</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>85</v>
+      <c r="A12" s="3">
+        <v>1195</v>
       </c>
       <c r="B12" s="3">
-        <v>1.5486164</v>
+        <v>1.3824520489999941</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>87</v>
+      <c r="A13" s="3">
+        <v>1240</v>
       </c>
       <c r="B13" s="3">
-        <v>1.5162066000000041</v>
+        <v>1.448098658999996</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>89</v>
+      <c r="A14" s="3">
+        <v>1299</v>
       </c>
       <c r="B14" s="3">
-        <v>1.492006500000002</v>
+        <v>1.5101966129999771</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>83</v>
+      <c r="A15" s="3">
+        <v>1321</v>
       </c>
       <c r="B15" s="3">
-        <v>1.5253695000000109</v>
+        <v>1.549143306000019</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>92</v>
+      <c r="A16" s="3">
+        <v>1216</v>
       </c>
       <c r="B16" s="3">
-        <v>1.476048600000013</v>
+        <v>1.4084177950000201</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>93</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>1214.7333333333329</v>
+        <v>1291.7333333333329</v>
       </c>
       <c r="B17" s="3">
-        <v>1.5021279600000019</v>
+        <v>1.4833448370666671</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7587,975 +5836,146 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>95</v>
+      <c r="A2" s="3">
+        <v>258</v>
       </c>
       <c r="B2" s="3">
-        <v>0.54841460000000097</v>
+        <v>0.46141221400000632</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.48048169999998441</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.46307999999999078</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.43038889999999702</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.39078370000001428</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.58181740000000559</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.55985519999998701</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.45040150000002649</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.52806179999998903</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.47679800000000228</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.4958706000000177</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.50546389999999519</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.41461680000003298</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.44489850000002212</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.46826650000002701</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>230.1333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.48261327333333948</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1273</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.5280118</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1125</v>
+        <v>245</v>
       </c>
       <c r="B3" s="3">
-        <v>1.4235450999999979</v>
+        <v>0.45435114500000401</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>124</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1137</v>
+        <v>257</v>
       </c>
       <c r="B4" s="3">
-        <v>1.4327156000000021</v>
+        <v>0.38726185199999458</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1113</v>
+        <v>331</v>
       </c>
       <c r="B5" s="3">
-        <v>1.3169992999999991</v>
+        <v>0.4979908910000006</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1184</v>
+        <v>313</v>
       </c>
       <c r="B6" s="3">
-        <v>1.480965099999999</v>
+        <v>0.49615465999997349</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>127</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1211</v>
+        <v>390</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5566238000000041</v>
+        <v>0.55180928900000481</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>128</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1239</v>
+        <v>341</v>
       </c>
       <c r="B8" s="3">
-        <v>1.5455127999999969</v>
+        <v>0.50694303700001342</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1098</v>
+        <v>329</v>
       </c>
       <c r="B9" s="3">
-        <v>1.311197899999996</v>
+        <v>0.50487074200000848</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1250</v>
+        <v>325</v>
       </c>
       <c r="B10" s="3">
-        <v>1.5510960000000009</v>
+        <v>0.49207967099999911</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1116</v>
+        <v>305</v>
       </c>
       <c r="B11" s="3">
-        <v>1.413676100000004</v>
+        <v>0.53298704299999144</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>132</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>1203</v>
+        <v>307</v>
       </c>
       <c r="B12" s="3">
-        <v>1.4680077000000009</v>
+        <v>0.47666848400001532</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>1203</v>
+        <v>395</v>
       </c>
       <c r="B13" s="3">
-        <v>1.468691199999995</v>
+        <v>0.60676246100001663</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>134</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>1146</v>
+        <v>391</v>
       </c>
       <c r="B14" s="3">
-        <v>1.4560795000000011</v>
+        <v>0.60425267800002302</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1205</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.4486539999999759</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1187</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.4708001999999849</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1179.333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.4581717399999969</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>220</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.49002089999999038</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>232</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.53756500000000074</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>209</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.51034149999998135</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>212</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.4291417000000024</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>190</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.45434699999998429</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>329</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.55267549999999233</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>275</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.61481539999999768</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>200</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.46119469999999302</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>203</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.45373219999999043</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>223</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.51833609999999908</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>223</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.44518850000000038</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>296</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.57938240000001429</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>206</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.50471290000001545</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>189</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.44142049999999239</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>208</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.49536340000003071</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>227.66666666666671</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.49921584666666569</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1296</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.4959295009999991</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1242</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.440738340999999</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1330</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.5362675610000029</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1288</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.466193469000004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1384</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.5629440630000031</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1156</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.3267765739999999</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1426</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.6708823529999961</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1323</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.4909814620000079</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1290</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.496999166000009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1362</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.527710564999992</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1276</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.449428122</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1188</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.3877246779999981</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1360</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.538900186000006</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1311</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.49564693100001</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1243</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.423627879000009</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1298.333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.4873833900666691</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>247</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.40131310499998563</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>260</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.42776861899997698</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>574</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.71328500900000336</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>322</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.48797293000001218</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>368</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.57768137799999408</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>288</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.45310539400000488</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>312</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.47424946999998951</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>336</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.48541471500001881</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>278</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.44428186499999361</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>287</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.47552953999999659</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>316</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.49032522900000691</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>251</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.42557604699999269</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>393</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.61192603699998926</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>183</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -8563,32 +5983,32 @@
         <v>292</v>
       </c>
       <c r="B15" s="3">
-        <v>0.48210308599999507</v>
+        <v>0.4833433830000331</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>184</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>303</v>
+        <v>360</v>
       </c>
       <c r="B16" s="3">
-        <v>0.46977997300001562</v>
+        <v>0.59738244900000836</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>321.8</v>
+        <v>322.60000000000002</v>
       </c>
       <c r="B17" s="3">
-        <v>0.49468749313333171</v>
+        <v>0.51028466660000615</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>186</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Ar_Script/test_data.xlsx
+++ b/Ar_Script/test_data.xlsx
@@ -1,34 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pytest\Ar_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E75C0B-A51A-4B5C-AFB1-BCA4C1E2C8D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74E798C6-3158-4897-98A0-2ABB1128CF21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="825" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数值说明" sheetId="1" r:id="rId1"/>
-    <sheet name="冷启动_v12_24" sheetId="14" r:id="rId2"/>
-    <sheet name="热启动_v12_29" sheetId="15" r:id="rId3"/>
-    <sheet name="冷启动_v11_35" sheetId="12" r:id="rId4"/>
-    <sheet name="热启动_v11_51" sheetId="13" r:id="rId5"/>
-    <sheet name="冷启动_v10_us" sheetId="8" r:id="rId6"/>
-    <sheet name="热启动_v10_us" sheetId="9" r:id="rId7"/>
-    <sheet name="冷启动_v10apk_45" sheetId="10" r:id="rId8"/>
-    <sheet name="热启动_v10apk_49" sheetId="11" r:id="rId9"/>
+    <sheet name="冷启动_v21" sheetId="4" r:id="rId2"/>
+    <sheet name="热启动_v21" sheetId="5" r:id="rId3"/>
+    <sheet name="冷启动_v18" sheetId="2" r:id="rId4"/>
+    <sheet name="热启动_v18" sheetId="3" r:id="rId5"/>
+    <sheet name="冷启动_v12_24" sheetId="6" r:id="rId6"/>
+    <sheet name="热启动_v12_29" sheetId="7" r:id="rId7"/>
+    <sheet name="冷启动_v11_35" sheetId="8" r:id="rId8"/>
+    <sheet name="热启动_v11_51" sheetId="9" r:id="rId9"/>
+    <sheet name="冷启动_v10_us" sheetId="10" r:id="rId10"/>
+    <sheet name="热启动_v10_us" sheetId="11" r:id="rId11"/>
+    <sheet name="冷启动_v10apk_45" sheetId="12" r:id="rId12"/>
+    <sheet name="热启动_v10apk_49" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="199">
   <si>
     <t>caltime:启动app后的计时器的值-启动app前启动计时器的值</t>
   </si>
@@ -51,6 +55,390 @@
     <t>currentTime</t>
   </si>
   <si>
+    <t>2020-03-17 16:25:56</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:05</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:14</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:24</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:33</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:43</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:26:52</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:02</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:11</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:21</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:30</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:40</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:49</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:27:59</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:28:08</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:28:11</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:23:37</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:23:46</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:23:54</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:03</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:12</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:20</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:29</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:38</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:46</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:24:55</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:04</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:12</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:21</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:29</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:38</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:25:41</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:08:37</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:08:46</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:08:56</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:06</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:15</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:25</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:35</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:44</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:09:54</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:04</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:13</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:23</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:33</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:42</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:52</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:10:55</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:11</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:19</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:28</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:36</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:45</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:11:53</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:02</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:10</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:19</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:28</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:36</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:45</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:12:53</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:13:02</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:13:10</t>
+  </si>
+  <si>
+    <t>2020-03-17 16:13:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:43</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:51:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:02</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:21</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:40</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:52:59</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:18</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:46</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:53:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:05</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:22</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:31</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:48</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:54:56</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:05</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:13</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:22</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:47</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:55:56</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:56:04</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:56:07</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:23</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:33</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:42</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:30:52</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:01</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:30</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:49</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:31:58</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:08</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:17</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:27</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:36</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:39</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:32:55</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:03</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:12</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:29</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:46</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:33:54</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:03</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:11</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:20</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:28</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:37</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:45</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:54</t>
+  </si>
+  <si>
+    <t>2020-02-26 15:34:57</t>
+  </si>
+  <si>
     <t>2020-02-26 15:04:08</t>
   </si>
   <si>
@@ -241,205 +629,13 @@
   </si>
   <si>
     <t>2020-02-26 15:44:48</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:30:23</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:30:33</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:30:42</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:30:52</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:01</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:11</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:20</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:30</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:39</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:49</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:31:58</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:08</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:17</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:27</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:36</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:39</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:32:55</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:03</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:12</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:20</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:29</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:37</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:46</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:33:54</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:03</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:11</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:20</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:28</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:37</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:45</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:54</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:34:57</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:51:33</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:51:43</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:51:52</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:02</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:11</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:21</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:30</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:40</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:49</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:52:59</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:08</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:18</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:27</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:37</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:46</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:53:49</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:05</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:13</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:22</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:31</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:39</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:48</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:54:56</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:05</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:13</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:22</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:30</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:39</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:47</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:55:56</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:56:04</t>
-  </si>
-  <si>
-    <t>2020-02-26 15:56:07</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +692,18 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -528,7 +736,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -546,6 +754,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,7 +824,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_24!$A$1</c:f>
+              <c:f>冷启动_v21!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -629,54 +843,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
+              <c:f>冷启动_v21!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1306</c:v>
+                  <c:v>784</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1339</c:v>
+                  <c:v>1481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1296</c:v>
+                  <c:v>1396</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1345</c:v>
+                  <c:v>1526</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1211</c:v>
+                  <c:v>1471</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1385</c:v>
+                  <c:v>1508</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1211</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1331</c:v>
+                  <c:v>1485</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1300</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1302</c:v>
+                  <c:v>1524</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1274</c:v>
+                  <c:v>1454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1342</c:v>
+                  <c:v>1477</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1260</c:v>
+                  <c:v>1491</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1319</c:v>
+                  <c:v>1489</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1325</c:v>
+                  <c:v>1462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -684,7 +898,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C4D7-47F3-9CAD-625DF17E48EE}"/>
+              <c16:uniqueId val="{00000000-BE84-496D-8F6F-B7C37A724AD9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -793,7 +1007,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$B$1</c:f>
+              <c:f>冷启动_v12_24!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -812,54 +1026,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.4959295009999991</c:v>
+                  <c:v>1.517275000999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.440738340999999</c:v>
+                  <c:v>1.5344598759999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5362675610000029</c:v>
+                  <c:v>1.532833729000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.466193469000004</c:v>
+                  <c:v>1.5322942459999991</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5629440630000031</c:v>
+                  <c:v>1.416227468000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3267765739999999</c:v>
+                  <c:v>1.5860359859999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6708823529999961</c:v>
+                  <c:v>1.4170187309999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.4909814620000079</c:v>
+                  <c:v>1.50720668400001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.496999166000009</c:v>
+                  <c:v>1.4859628579999939</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.527710564999992</c:v>
+                  <c:v>1.5135358269999979</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.449428122</c:v>
+                  <c:v>1.434616075999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3877246779999981</c:v>
+                  <c:v>1.546846173000006</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.538900186000006</c:v>
+                  <c:v>1.439564756999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.49564693100001</c:v>
+                  <c:v>1.4936907439999909</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.423627879000009</c:v>
+                  <c:v>1.542972929999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -867,7 +1081,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9B58-47DF-A586-1C6F2691B616}"/>
+              <c16:uniqueId val="{00000000-49B5-4A15-9822-F35CC3D5FCFA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -976,7 +1190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$A$1</c:f>
+              <c:f>热启动_v12_29!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -995,54 +1209,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>247</c:v>
+                  <c:v>775</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>260</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>574</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>322</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>368</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>288</c:v>
+                  <c:v>358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>312</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>336</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>278</c:v>
+                  <c:v>341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>287</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>251</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>393</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>303</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1050,7 +1264,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-42F0-41E6-AD8B-283D0301981B}"/>
+              <c16:uniqueId val="{00000000-5139-4DEF-82FC-2C8B68305A7D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1159,7 +1373,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:f>热启动_v12_29!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1178,54 +1392,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.40131310499998563</c:v>
+                  <c:v>0.97887260300001344</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42776861899997698</c:v>
+                  <c:v>0.45954487200000932</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71328500900000336</c:v>
+                  <c:v>0.59951055199999814</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.48797293000001218</c:v>
+                  <c:v>0.55111392699998873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57768137799999408</c:v>
+                  <c:v>0.50078645199999983</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.45310539400000488</c:v>
+                  <c:v>0.51564532700001564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.47424946999998951</c:v>
+                  <c:v>0.50013278599999467</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.48541471500001881</c:v>
+                  <c:v>0.56843479400001229</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44428186499999361</c:v>
+                  <c:v>0.4785444860000041</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.47552953999999659</c:v>
+                  <c:v>0.43737667599998531</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.49032522900000691</c:v>
+                  <c:v>0.5086958750000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.42557604699999269</c:v>
+                  <c:v>0.56337513599999056</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61192603699998926</c:v>
+                  <c:v>0.57902527400000281</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.48210308599999507</c:v>
+                  <c:v>0.45733465900002562</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.46977997300001562</c:v>
+                  <c:v>0.54734748800001398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,7 +1447,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-32DE-4B77-8C49-651E70AE8440}"/>
+              <c16:uniqueId val="{00000000-0D99-462B-9CA3-1045C60AB626}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1342,7 +1556,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:f>冷启动_v11_35!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1361,54 +1575,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1396</c:v>
+                  <c:v>1297</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1205</c:v>
+                  <c:v>1305</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1304</c:v>
+                  <c:v>1284</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1264</c:v>
+                  <c:v>1186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1362</c:v>
+                  <c:v>1338</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1338</c:v>
+                  <c:v>1354</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1212</c:v>
+                  <c:v>1312</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1365</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1303</c:v>
+                  <c:v>1321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1356</c:v>
+                  <c:v>1267</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1195</c:v>
+                  <c:v>1189</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1240</c:v>
+                  <c:v>1332</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1299</c:v>
+                  <c:v>1335</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1321</c:v>
+                  <c:v>1279</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1216</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,7 +1630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EA9D-432B-91D7-9BF269CED409}"/>
+              <c16:uniqueId val="{00000000-54FD-4AAB-B9D7-AF79573E0A08}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1525,7 +1739,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10apk_45!$B$1</c:f>
+              <c:f>冷启动_v11_35!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1544,54 +1758,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
+              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.595527615000002</c:v>
+                  <c:v>1.499238886000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.405619346999998</c:v>
+                  <c:v>1.5486144070000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.455411508000005</c:v>
+                  <c:v>1.470317532000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.456367309999997</c:v>
+                  <c:v>1.394931042000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5594390270000029</c:v>
+                  <c:v>1.5257357759999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5259609339999971</c:v>
+                  <c:v>1.5726117779999951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.394874270000003</c:v>
+                  <c:v>1.514043236000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5339312979999991</c:v>
+                  <c:v>1.494204566999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.490408301000002</c:v>
+                  <c:v>1.5163570470000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.534324523999999</c:v>
+                  <c:v>1.4768695869999959</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3824520489999941</c:v>
+                  <c:v>1.3813268969999939</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.448098658999996</c:v>
+                  <c:v>1.501141831000012</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5101966129999771</c:v>
+                  <c:v>1.520303097999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.549143306000019</c:v>
+                  <c:v>1.4876268520000051</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4084177950000201</c:v>
+                  <c:v>1.492927705999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1599,7 +1813,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93F4-4AA4-8620-17989C73D945}"/>
+              <c16:uniqueId val="{00000000-B35B-4A92-8085-4F628F192A2C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1708,7 +1922,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10apk_49!$A$1</c:f>
+              <c:f>热启动_v11_51!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1727,54 +1941,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
+              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>258</c:v>
+                  <c:v>459</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>245</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>257</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>331</c:v>
+                  <c:v>284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>313</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>390</c:v>
+                  <c:v>414</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>341</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>329</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>325</c:v>
+                  <c:v>356</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>305</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>307</c:v>
+                  <c:v>435</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>395</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>391</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>292</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>360</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1782,7 +1996,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8647-4CF8-AB83-4E8EDC71DEF3}"/>
+              <c16:uniqueId val="{00000000-0646-44AE-ADF1-128A3AD4DA7C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1891,7 +2105,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v10apk_49!$B$1</c:f>
+              <c:f>热启动_v11_51!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1910,54 +2124,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v10apk_49!$B$2:$B$16</c:f>
+              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.46141221400000632</c:v>
+                  <c:v>0.65166271100000017</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45435114500000401</c:v>
+                  <c:v>0.52707454000000098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38726185199999458</c:v>
+                  <c:v>0.53721534400000337</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4979908910000006</c:v>
+                  <c:v>0.4366957470000159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.49615465999997349</c:v>
+                  <c:v>0.43569985199999911</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55180928900000481</c:v>
+                  <c:v>0.60974116300002379</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50694303700001342</c:v>
+                  <c:v>0.54839405900000315</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50487074200000848</c:v>
+                  <c:v>0.50771024400000897</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49207967099999911</c:v>
+                  <c:v>0.49121143200000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.53298704299999144</c:v>
+                  <c:v>0.4727246770000022</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.47666848400001532</c:v>
+                  <c:v>0.61724934299999745</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60676246100001663</c:v>
+                  <c:v>0.53452658899999506</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.60425267800002302</c:v>
+                  <c:v>0.56128071000000546</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4833433830000331</c:v>
+                  <c:v>0.46013984199998959</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.59738244900000836</c:v>
+                  <c:v>0.51358361600000535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,7 +2179,556 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F9B-439E-ACB2-CD8B323C05FC}"/>
+              <c16:uniqueId val="{00000000-63C6-45C0-81AC-0C0C6E271967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10_us!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1330</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1156</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1290</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1276</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1188</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1311</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE29-44F7-9BED-731F0B4AFDD6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10_us!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10_us!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.4959295009999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.440738340999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5362675610000029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.466193469000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5629440630000031</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3267765739999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6708823529999961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4909814620000079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.496999166000009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.527710564999992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.449428122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3877246779999981</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.538900186000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.49564693100001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.423627879000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BB8-43D1-937B-A5A8992DD54B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10_us!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10_us!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B9B0-4B69-ABEE-21F22A439213}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2074,7 +2837,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v12_24!$B$1</c:f>
+              <c:f>冷启动_v21!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2093,54 +2856,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v12_24!$B$2:$B$16</c:f>
+              <c:f>冷启动_v21!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.517275000999998</c:v>
+                  <c:v>0.99176083300000073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5344598759999999</c:v>
+                  <c:v>1.6692979100000009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.532833729000004</c:v>
+                  <c:v>1.5845847269999991</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5322942459999991</c:v>
+                  <c:v>1.6962872110000049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.416227468000002</c:v>
+                  <c:v>1.6425607099999979</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5860359859999991</c:v>
+                  <c:v>1.6834556900000019</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4170187309999991</c:v>
+                  <c:v>1.636732545000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.50720668400001</c:v>
+                  <c:v>1.6501792449999899</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4859628579999939</c:v>
+                  <c:v>1.6734595100000009</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.5135358269999979</c:v>
+                  <c:v>1.7136879920000041</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.434616075999998</c:v>
+                  <c:v>1.66147762899999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.546846173000006</c:v>
+                  <c:v>1.638890803999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.439564756999999</c:v>
+                  <c:v>1.6773173700000259</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4936907439999909</c:v>
+                  <c:v>1.693341856000018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.542972929999991</c:v>
+                  <c:v>1.6160573299999901</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2148,7 +2911,922 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F60B-40F4-B840-E4E20811D448}"/>
+              <c16:uniqueId val="{00000000-B819-4CCD-A8CD-193F9F59B1E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10_us!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10_us!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.40131310499998563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42776861899997698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71328500900000336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48797293000001218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57768137799999408</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45310539400000488</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.47424946999998951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.48541471500001881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44428186499999361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.47552953999999659</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.49032522900000691</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42557604699999269</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.61192603699998926</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48210308599999507</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.46977997300001562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8037-4071-88A7-C8E4FBD253BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10apk_45!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10apk_45!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1264</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1303</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1356</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1299</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1216</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74D3-4305-985E-3D19E001183F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>冷启动_v10apk_45!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>冷启动_v10apk_45!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.595527615000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.405619346999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.455411508000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.456367309999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5594390270000029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5259609339999971</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.394874270000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5339312979999991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.490408301000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.534324523999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3824520489999941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.448098658999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5101966129999771</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.549143306000019</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4084177950000201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF3D-4606-B494-515311B65537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10apk_49!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>runTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10apk_49!$A$2:$A$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CBF0-41FF-B7F1-530A7714BE09}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Caltime Data</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>热启动_v10apk_49!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>calTime</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>热启动_v10apk_49!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.46141221400000632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45435114500000401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38726185199999458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4979908910000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49615465999997349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55180928900000481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50694303700001342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50487074200000848</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.49207967099999911</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53298704299999144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.47666848400001532</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.60676246100001663</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.60425267800002302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.4833433830000331</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59738244900000836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFE9-4607-8B20-53D27CADE875}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2221,10 +3899,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="39"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2257,7 +3935,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_29!$A$1</c:f>
+              <c:f>热启动_v21!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2276,51 +3954,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_29!$A$2:$A$16</c:f>
+              <c:f>热启动_v21!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>775</c:v>
+                  <c:v>520</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>284</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>364</c:v>
+                  <c:v>334</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>347</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>358</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>350</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>371</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>341</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>286</c:v>
+                  <c:v>391</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>346</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>361</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>355</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>315</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>381</c:v>
@@ -2331,7 +4009,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-67B6-47CA-A7D2-87319D215C7C}"/>
+              <c16:uniqueId val="{00000000-DCFC-4239-828E-9BC1D4488FA4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2404,10 +4082,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="139"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="39"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2440,7 +4118,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v12_29!$B$1</c:f>
+              <c:f>热启动_v21!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2459,54 +4137,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v12_29!$B$2:$B$16</c:f>
+              <c:f>热启动_v21!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.97887260300001344</c:v>
+                  <c:v>0.70664229899998077</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.45954487200000932</c:v>
+                  <c:v>0.41212672700001463</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.59951055199999814</c:v>
+                  <c:v>0.49176516399998599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55111392699998873</c:v>
+                  <c:v>0.44081370399999292</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50078645199999983</c:v>
+                  <c:v>0.88593045599998277</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.51564532700001564</c:v>
+                  <c:v>0.52073727800001279</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.50013278599999467</c:v>
+                  <c:v>0.57204475899999352</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56843479400001229</c:v>
+                  <c:v>0.48000844199998483</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.4785444860000041</c:v>
+                  <c:v>0.48258526600000101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.43737667599998531</c:v>
+                  <c:v>0.56567326100000059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5086958750000008</c:v>
+                  <c:v>0.53221880500001362</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.56337513599999056</c:v>
+                  <c:v>0.59323251600000049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.57902527400000281</c:v>
+                  <c:v>0.476208956999983</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.45733465900002562</c:v>
+                  <c:v>0.44816827100004281</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.54734748800001398</c:v>
+                  <c:v>0.54415353699999969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2514,7 +4192,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8ACE-4E9F-8D41-9DE69E35657A}"/>
+              <c16:uniqueId val="{00000000-C4E7-41B1-8F7A-6E155076FABD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2587,10 +4265,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2623,7 +4301,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$A$1</c:f>
+              <c:f>冷启动_v18!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2642,54 +4320,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$A$2:$A$16</c:f>
+              <c:f>冷启动_v18!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1297</c:v>
+                  <c:v>652</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1305</c:v>
+                  <c:v>1234</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1284</c:v>
+                  <c:v>1276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1186</c:v>
+                  <c:v>1353</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1338</c:v>
+                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1354</c:v>
+                  <c:v>1358</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1312</c:v>
+                  <c:v>1344</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1279</c:v>
+                  <c:v>1202</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1321</c:v>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1267</c:v>
+                  <c:v>1328</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1189</c:v>
+                  <c:v>1347</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1332</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1335</c:v>
+                  <c:v>1369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1279</c:v>
+                  <c:v>1227</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1301</c:v>
+                  <c:v>1365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2697,7 +4375,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FBA-4FFD-ACAA-D9A5865B1105}"/>
+              <c16:uniqueId val="{00000000-25CF-4B05-B83E-1CBDD488EF3F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2770,10 +4448,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="139"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="39"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2806,7 +4484,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v11_35!$B$1</c:f>
+              <c:f>冷启动_v18!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2825,54 +4503,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v11_35!$B$2:$B$16</c:f>
+              <c:f>冷启动_v18!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>1.499238886000001</c:v>
+                  <c:v>0.84419417499998417</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.5486144070000021</c:v>
+                  <c:v>1.418631011000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.470317532000003</c:v>
+                  <c:v>1.4428048569999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.394931042000003</c:v>
+                  <c:v>1.5016516510000031</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5257357759999981</c:v>
+                  <c:v>1.488882031999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5726117779999951</c:v>
+                  <c:v>1.5141852030000109</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.514043236000006</c:v>
+                  <c:v>1.515805901999983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.494204566999997</c:v>
+                  <c:v>1.35302654900002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5163570470000001</c:v>
+                  <c:v>1.4449971150000069</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4768695869999959</c:v>
+                  <c:v>1.4871853180000021</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3813268969999939</c:v>
+                  <c:v>1.543454643999979</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.501141831000012</c:v>
+                  <c:v>1.459503860000041</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.520303097999999</c:v>
+                  <c:v>1.552538640000023</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.4876268520000051</c:v>
+                  <c:v>1.398926355999947</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.492927705999989</c:v>
+                  <c:v>1.523123262000013</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2880,7 +4558,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7E39-4D83-97EE-F7213553DD74}"/>
+              <c16:uniqueId val="{00000000-48B3-498C-B218-5798B7F5F4CE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2989,7 +4667,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$A$1</c:f>
+              <c:f>热启动_v18!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3008,54 +4686,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$A$2:$A$16</c:f>
+              <c:f>热启动_v18!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>459</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>349</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315</c:v>
+                  <c:v>335</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>284</c:v>
+                  <c:v>417</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>282</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>414</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378</c:v>
+                  <c:v>423</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>326</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>356</c:v>
+                  <c:v>449</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>299</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>435</c:v>
+                  <c:v>452</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>392</c:v>
+                  <c:v>398</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>343</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>282</c:v>
+                  <c:v>359</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>326</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,7 +4741,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D3DA-49BE-A7A8-14760BA2AA44}"/>
+              <c16:uniqueId val="{00000000-6EE3-4FDE-896D-A40002FA46E5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3172,7 +4850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>热启动_v11_51!$B$1</c:f>
+              <c:f>热启动_v18!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3191,54 +4869,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>热启动_v11_51!$B$2:$B$16</c:f>
+              <c:f>热启动_v18!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.65166271100000017</c:v>
+                  <c:v>0.6654576910000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.52707454000000098</c:v>
+                  <c:v>0.50925286500000055</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.53721534400000337</c:v>
+                  <c:v>0.50266903699999688</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.4366957470000159</c:v>
+                  <c:v>0.6524548949999982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.43569985199999911</c:v>
+                  <c:v>0.56705853599999756</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.60974116300002379</c:v>
+                  <c:v>0.68135740999999683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.54839405900000315</c:v>
+                  <c:v>0.61817485499999236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.50771024400000897</c:v>
+                  <c:v>0.57911097999999583</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.49121143200000011</c:v>
+                  <c:v>0.63005794800000103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.4727246770000022</c:v>
+                  <c:v>0.69988462999999967</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.61724934299999745</c:v>
+                  <c:v>0.65847550400000898</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53452658899999506</c:v>
+                  <c:v>0.61055792400000541</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.56128071000000546</c:v>
+                  <c:v>0.48503700199999861</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46013984199998959</c:v>
+                  <c:v>0.60023491000001172</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.51358361600000535</c:v>
+                  <c:v>0.5287374939999836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3246,7 +4924,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-57BF-4C67-A0A8-DDFF2E30FA9D}"/>
+              <c16:uniqueId val="{00000000-CB3E-46D6-962F-FDA702C1FE75}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3355,7 +5033,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>冷启动_v10_us!$A$1</c:f>
+              <c:f>冷启动_v12_24!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3374,54 +5052,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>冷启动_v10_us!$A$2:$A$16</c:f>
+              <c:f>冷启动_v12_24!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
+                  <c:v>1306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1339</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1296</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1242</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1330</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>1288</c:v>
+                  <c:v>1345</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1384</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1156</c:v>
+                  <c:v>1385</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1426</c:v>
+                  <c:v>1211</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1323</c:v>
+                  <c:v>1331</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1290</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1362</c:v>
+                  <c:v>1302</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1276</c:v>
+                  <c:v>1274</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1188</c:v>
+                  <c:v>1342</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1360</c:v>
+                  <c:v>1260</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1311</c:v>
+                  <c:v>1319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1243</c:v>
+                  <c:v>1325</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,7 +5107,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3CA1-4587-9F69-849087D72EE4}"/>
+              <c16:uniqueId val="{00000000-D74C-4CA6-BA23-95E8E018C6C5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3510,7 +5188,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3541,7 +5219,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3562,7 +5240,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3577,7 +5255,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3608,7 +5286,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3629,7 +5307,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3696,7 +5374,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3763,7 +5441,342 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3830,7 +5843,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3897,7 +5910,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -3944,73 +5957,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5400000" cy="2700000"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4318,8 +6264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4354,11 +6300,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4367,191 +6313,1023 @@
     <col min="3" max="3" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>1306</v>
+        <v>1296</v>
       </c>
       <c r="B2" s="3">
-        <v>1.517275000999998</v>
+        <v>1.4959295009999991</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>1339</v>
+        <v>1242</v>
       </c>
       <c r="B3" s="3">
-        <v>1.5344598759999999</v>
+        <v>1.440738340999999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>1296</v>
+        <v>1330</v>
       </c>
       <c r="B4" s="3">
-        <v>1.532833729000004</v>
+        <v>1.5362675610000029</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>1345</v>
+        <v>1288</v>
       </c>
       <c r="B5" s="3">
-        <v>1.5322942459999991</v>
+        <v>1.466193469000004</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>1211</v>
+        <v>1384</v>
       </c>
       <c r="B6" s="3">
-        <v>1.416227468000002</v>
+        <v>1.5629440630000031</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>1385</v>
+        <v>1156</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5860359859999991</v>
+        <v>1.3267765739999999</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>108</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>1211</v>
+        <v>1426</v>
       </c>
       <c r="B8" s="3">
-        <v>1.4170187309999991</v>
+        <v>1.6708823529999961</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="B9" s="3">
-        <v>1.50720668400001</v>
+        <v>1.4909814620000079</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>1300</v>
+        <v>1290</v>
       </c>
       <c r="B10" s="3">
-        <v>1.4859628579999939</v>
+        <v>1.496999166000009</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>111</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>1302</v>
+        <v>1362</v>
       </c>
       <c r="B11" s="3">
-        <v>1.5135358269999979</v>
+        <v>1.527710564999992</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B12" s="3">
-        <v>1.434616075999998</v>
+        <v>1.449428122</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>1342</v>
+        <v>1188</v>
       </c>
       <c r="B13" s="3">
-        <v>1.546846173000006</v>
+        <v>1.3877246779999981</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>1260</v>
+        <v>1360</v>
       </c>
       <c r="B14" s="3">
-        <v>1.439564756999999</v>
+        <v>1.538900186000006</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="B15" s="3">
-        <v>1.4936907439999909</v>
+        <v>1.49564693100001</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>1325</v>
+        <v>1243</v>
       </c>
       <c r="B16" s="3">
-        <v>1.542972929999991</v>
+        <v>1.423627879000009</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>1303.0666666666671</v>
+        <v>1298.333333333333</v>
       </c>
       <c r="B17" s="3">
-        <v>1.500036072399999</v>
+        <v>1.4873833900666691</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>118</v>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>247</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.40131310499998563</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>260</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.42776861899997698</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>574</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.71328500900000336</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>322</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.48797293000001218</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>368</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.57768137799999408</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>288</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.45310539400000488</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>312</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.47424946999998951</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>336</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.48541471500001881</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>278</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.44428186499999361</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>287</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.47552953999999659</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>316</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.49032522900000691</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>251</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.42557604699999269</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>393</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.61192603699998926</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.48210308599999507</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>303</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.46977997300001562</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>321.8</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.49468749313333171</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1396</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.595527615000002</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1205</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.405619346999998</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1304</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.455411508000005</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1264</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.456367309999997</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1362</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.5594390270000029</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1338</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5259609339999971</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1212</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.394874270000003</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1365</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.5339312979999991</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1303</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.490408301000002</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1356</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.534324523999999</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1195</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.3824520489999941</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1240</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.448098658999996</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1299</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.5101966129999771</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1321</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.549143306000019</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1216</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.4084177950000201</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1291.7333333333329</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.4833448370666671</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>258</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.46141221400000632</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>245</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.45435114500000401</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>257</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.38726185199999458</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>331</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.4979908910000006</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>313</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.49615465999997349</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>390</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.55180928900000481</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>341</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.50694303700001342</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>329</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.50487074200000848</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>325</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.49207967099999911</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>305</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.53298704299999144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>307</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.47666848400001532</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>395</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.60676246100001663</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>391</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.60425267800002302</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>292</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.4833433830000331</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>360</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.59738244900000836</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>322.60000000000002</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.51028466660000615</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>784</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.99176083300000073</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1481</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.6692979100000009</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1396</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.5845847269999991</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1526</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.6962872110000049</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1471</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.6425607099999979</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1508</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.6834556900000019</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1462</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.636732545000001</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1485</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.6501792449999899</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1491</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.6734595100000009</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1524</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.7136879920000041</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1454</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.66147762899999</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1477</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.638890803999999</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1491</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.6773173700000259</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1489</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.693341856000018</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1462</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.6160573299999901</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1433.4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.6152727574666681</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +7340,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>520</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.70664229899998077</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>268</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.41212672700001463</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>334</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.49176516399998599</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>310</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.44081370399999292</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>745</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.88593045599998277</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>347</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.52073727800001279</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>381</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.57204475899999352</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>354</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.48000844199998483</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>354</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.48258526600000101</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>391</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.56567326100000059</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>367</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.53221880500001362</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>421</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.59323251600000049</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>354</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.476208956999983</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>343</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.44816827100004281</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>381</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.54415353699999969</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>391.33333333333331</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.54348729613333258</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4575,190 +7560,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>775</v>
+        <v>652</v>
       </c>
       <c r="B2" s="3">
-        <v>0.97887260300001344</v>
+        <v>0.84419417499998417</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>119</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>284</v>
+        <v>1234</v>
       </c>
       <c r="B3" s="3">
-        <v>0.45954487200000932</v>
+        <v>1.418631011000002</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>364</v>
+        <v>1276</v>
       </c>
       <c r="B4" s="3">
-        <v>0.59951055199999814</v>
+        <v>1.4428048569999989</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>121</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>347</v>
+        <v>1353</v>
       </c>
       <c r="B5" s="3">
-        <v>0.55111392699998873</v>
+        <v>1.5016516510000031</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>122</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>352</v>
+        <v>1308</v>
       </c>
       <c r="B6" s="3">
-        <v>0.50078645199999983</v>
+        <v>1.488882031999992</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>358</v>
+        <v>1358</v>
       </c>
       <c r="B7" s="3">
-        <v>0.51564532700001564</v>
+        <v>1.5141852030000109</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>350</v>
+        <v>1344</v>
       </c>
       <c r="B8" s="3">
-        <v>0.50013278599999467</v>
+        <v>1.515805901999983</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>371</v>
+        <v>1202</v>
       </c>
       <c r="B9" s="3">
-        <v>0.56843479400001229</v>
+        <v>1.35302654900002</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>341</v>
+        <v>1272</v>
       </c>
       <c r="B10" s="3">
-        <v>0.4785444860000041</v>
+        <v>1.4449971150000069</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>286</v>
+        <v>1328</v>
       </c>
       <c r="B11" s="3">
-        <v>0.43737667599998531</v>
+        <v>1.4871853180000021</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>346</v>
+        <v>1347</v>
       </c>
       <c r="B12" s="3">
-        <v>0.5086958750000008</v>
+        <v>1.543454643999979</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
-        <v>361</v>
+        <v>1274</v>
       </c>
       <c r="B13" s="3">
-        <v>0.56337513599999056</v>
+        <v>1.459503860000041</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
-        <v>355</v>
+        <v>1369</v>
       </c>
       <c r="B14" s="3">
-        <v>0.57902527400000281</v>
+        <v>1.552538640000023</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
-        <v>315</v>
+        <v>1227</v>
       </c>
       <c r="B15" s="3">
-        <v>0.45733465900002562</v>
+        <v>1.398926355999947</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>381</v>
+        <v>1365</v>
       </c>
       <c r="B16" s="3">
-        <v>0.54734748800001398</v>
+        <v>1.523123262000013</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
-        <v>372.4</v>
+        <v>1260.5999999999999</v>
       </c>
       <c r="B17" s="3">
-        <v>0.54971606046667032</v>
+        <v>1.432594038333334</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -4768,8 +7753,629 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>436</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.6654576910000003</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>328</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.50925286500000055</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>335</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.50266903699999688</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>417</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.6524548949999982</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>352</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.56705853599999756</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>440</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.68135740999999683</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>423</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.61817485499999236</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>351</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.57911097999999583</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>449</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.63005794800000103</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>446</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.69988462999999967</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>452</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.65847550400000898</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>398</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.61055792400000541</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>320</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.48503700199999861</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>359</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.60023491000001172</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>316</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.5287374939999836</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>388.13333333333333</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.59923477873333253</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1306</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.517275000999998</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>1339</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.5344598759999999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>1296</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.532833729000004</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>1345</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1.5322942459999991</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.416227468000002</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>1385</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1.5860359859999991</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>1211</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.4170187309999991</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>1331</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1.50720668400001</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.4859628579999939</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>1302</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.5135358269999979</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>1274</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.434616075999998</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>1342</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.546846173000006</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>1260</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.439564756999999</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>1319</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4936907439999909</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>1325</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1.542972929999991</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>1303.0666666666671</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1.500036072399999</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>775</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.97887260300001344</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>284</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.45954487200000932</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>364</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.59951055199999814</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>347</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.55111392699998873</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>352</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.50078645199999983</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>358</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.51564532700001564</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>350</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.50013278599999467</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>371</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.56843479400001229</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>341</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4785444860000041</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>286</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.43737667599998531</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>346</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.5086958750000008</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>361</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.56337513599999056</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>355</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.57902527400000281</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>315</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.45733465900002562</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>381</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.54734748800001398</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>372.4</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.54971606046667032</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4802,7 +8408,7 @@
         <v>1.499238886000001</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -4813,7 +8419,7 @@
         <v>1.5486144070000021</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -4824,7 +8430,7 @@
         <v>1.470317532000003</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -4835,7 +8441,7 @@
         <v>1.394931042000003</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -4846,7 +8452,7 @@
         <v>1.5257357759999981</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -4857,7 +8463,7 @@
         <v>1.5726117779999951</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -4868,7 +8474,7 @@
         <v>1.514043236000006</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -4879,7 +8485,7 @@
         <v>1.494204566999997</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -4890,7 +8496,7 @@
         <v>1.5163570470000001</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -4901,7 +8507,7 @@
         <v>1.4768695869999959</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -4912,7 +8518,7 @@
         <v>1.3813268969999939</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -4923,7 +8529,7 @@
         <v>1.501141831000012</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -4934,7 +8540,7 @@
         <v>1.520303097999999</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -4945,7 +8551,7 @@
         <v>1.4876268520000051</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -4956,7 +8562,7 @@
         <v>1.492927705999989</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -4967,7 +8573,7 @@
         <v>1.4930833494666671</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4977,8 +8583,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5011,7 +8617,7 @@
         <v>0.65166271100000017</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -5022,7 +8628,7 @@
         <v>0.52707454000000098</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -5033,7 +8639,7 @@
         <v>0.53721534400000337</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>89</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -5044,7 +8650,7 @@
         <v>0.4366957470000159</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -5055,7 +8661,7 @@
         <v>0.43569985199999911</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -5066,7 +8672,7 @@
         <v>0.60974116300002379</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -5077,7 +8683,7 @@
         <v>0.54839405900000315</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -5088,7 +8694,7 @@
         <v>0.50771024400000897</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -5099,7 +8705,7 @@
         <v>0.49121143200000011</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -5110,7 +8716,7 @@
         <v>0.4727246770000022</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -5121,7 +8727,7 @@
         <v>0.61724934299999745</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -5132,7 +8738,7 @@
         <v>0.53452658899999506</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -5143,7 +8749,7 @@
         <v>0.56128071000000546</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>99</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -5154,7 +8760,7 @@
         <v>0.46013984199998959</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -5165,7 +8771,7 @@
         <v>0.51358361600000535</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>101</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -5176,839 +8782,7 @@
         <v>0.52699399126667001</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1296</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.4959295009999991</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1242</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.440738340999999</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1330</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.5362675610000029</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1288</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.466193469000004</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1384</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.5629440630000031</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1156</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.3267765739999999</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1426</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.6708823529999961</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1323</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.4909814620000079</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1290</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.496999166000009</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1362</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.527710564999992</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1276</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.449428122</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1188</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.3877246779999981</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1360</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.538900186000006</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1311</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.49564693100001</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1243</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.423627879000009</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1298.333333333333</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.4873833900666691</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>247</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.40131310499998563</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>260</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.42776861899997698</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>574</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.71328500900000336</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>322</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.48797293000001218</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>368</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.57768137799999408</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>288</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.45310539400000488</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>312</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.47424946999998951</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>336</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.48541471500001881</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>278</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.44428186499999361</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>287</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.47552953999999659</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>316</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.49032522900000691</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>251</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.42557604699999269</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>393</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.61192603699998926</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>292</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.48210308599999507</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>303</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.46977997300001562</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>321.8</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.49468749313333171</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>1396</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1.595527615000002</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>1205</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.405619346999998</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>1304</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.455411508000005</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>1264</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1.456367309999997</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>1362</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1.5594390270000029</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>1338</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1.5259609339999971</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>1212</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1.394874270000003</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>1365</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1.5339312979999991</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>1303</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1.490408301000002</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>1356</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.534324523999999</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>1195</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1.3824520489999941</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>1240</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.448098658999996</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>1299</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.5101966129999771</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>1321</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.549143306000019</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>1216</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.4084177950000201</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>1291.7333333333329</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.4833448370666671</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3">
-        <v>258</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.46141221400000632</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>245</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.45435114500000401</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>257</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.38726185199999458</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>331</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.4979908910000006</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>313</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.49615465999997349</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>390</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0.55180928900000481</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>341</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.50694303700001342</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>329</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.50487074200000848</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>325</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.49207967099999911</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>305</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0.53298704299999144</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>307</v>
-      </c>
-      <c r="B12" s="3">
-        <v>0.47666848400001532</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>395</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0.60676246100001663</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
-        <v>391</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0.60425267800002302</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
-        <v>292</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0.4833433830000331</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
-        <v>360</v>
-      </c>
-      <c r="B16" s="3">
-        <v>0.59738244900000836</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
-        <v>322.60000000000002</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0.51028466660000615</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
